--- a/Src/DetailedSamples/Samples/SheetView/Output/FreezeRowsColumns.xlsx
+++ b/Src/DetailedSamples/Samples/SheetView/Output/FreezeRowsColumns.xlsx
@@ -2,31 +2,24 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <bookViews>
-    <workbookView xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" activeTab="1" firstSheet="0"/>
+    <workbookView xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="R95890e0ada764714"/>
-    <sheet name="Xceed Trial License" sheetId="2" r:id="R99a1908519e546c3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="Rcbb3a75a38c347a1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t xml:space="preserve">Freeze Rows and Columns</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YES</t>
   </si>
   <si>
     <t xml:space="preserve">NO</t>
   </si>
   <si>
-    <t xml:space="preserve">This workbook was created using the trial version of Xceed Workbooks for .NET.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please contact sales@xceed.com if you are ready to purchase.</t>
+    <t xml:space="preserve">YES</t>
   </si>
 </sst>
 </file>
@@ -37,7 +30,7 @@
     <numFmt numFmtId="164" formatCode="HH:mm"/>
     <numFmt numFmtId="165" formatCode="yyyy/MM/dd"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <color theme="1"/>
       <sz val="11"/>
@@ -47,12 +40,6 @@
       <b/>
       <color theme="1"/>
       <sz val="15.5"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <color rgb="FFFF8C00"/>
-      <sz val="16"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -86,7 +73,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -104,7 +91,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="0">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -562,7 +548,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>1</v>
@@ -577,22 +563,22 @@
         <v>1</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K6" s="8" t="s">
         <v>1</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M6" s="8" t="s">
         <v>2</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O6" s="8" t="s">
         <v>2</v>
@@ -601,31 +587,31 @@
         <v>1</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R6" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S6" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T6" s="8" t="s">
         <v>1</v>
       </c>
       <c r="U6" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V6" s="8" t="s">
         <v>1</v>
       </c>
       <c r="W6" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X6" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y6" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z6" s="8" t="s">
         <v>1</v>
@@ -634,16 +620,16 @@
         <v>2</v>
       </c>
       <c r="AB6" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC6" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD6" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AE6" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF6" s="8" t="s">
         <v>2</v>
@@ -652,28 +638,28 @@
         <v>2</v>
       </c>
       <c r="AH6" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI6" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ6" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AK6" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL6" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM6" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN6" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO6" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP6" s="8" t="s">
         <v>2</v>
@@ -685,7 +671,7 @@
         <v>2</v>
       </c>
       <c r="AS6" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT6" s="8" t="s">
         <v>1</v>
@@ -694,16 +680,16 @@
         <v>1</v>
       </c>
       <c r="AV6" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW6" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX6" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AY6" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -711,7 +697,7 @@
         <v>44713.0208333333</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>2</v>
@@ -720,13 +706,13 @@
         <v>2</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>2</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>1</v>
@@ -744,28 +730,28 @@
         <v>1</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="8" t="s">
         <v>1</v>
       </c>
       <c r="R7" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S7" s="8" t="s">
         <v>1</v>
       </c>
       <c r="T7" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U7" s="8" t="s">
         <v>2</v>
@@ -774,7 +760,7 @@
         <v>2</v>
       </c>
       <c r="W7" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X7" s="8" t="s">
         <v>2</v>
@@ -789,13 +775,13 @@
         <v>2</v>
       </c>
       <c r="AB7" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC7" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AD7" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE7" s="8" t="s">
         <v>2</v>
@@ -807,13 +793,13 @@
         <v>2</v>
       </c>
       <c r="AH7" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI7" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AJ7" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK7" s="8" t="s">
         <v>2</v>
@@ -828,37 +814,37 @@
         <v>2</v>
       </c>
       <c r="AO7" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP7" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ7" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AR7" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS7" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT7" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU7" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV7" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW7" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX7" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AY7" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -875,7 +861,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>1</v>
@@ -887,19 +873,19 @@
         <v>2</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8" s="8" t="s">
         <v>1</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N8" s="8" t="s">
         <v>2</v>
@@ -920,13 +906,13 @@
         <v>1</v>
       </c>
       <c r="T8" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U8" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V8" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W8" s="8" t="s">
         <v>2</v>
@@ -935,13 +921,13 @@
         <v>1</v>
       </c>
       <c r="Y8" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z8" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AA8" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB8" s="8" t="s">
         <v>1</v>
@@ -953,16 +939,16 @@
         <v>1</v>
       </c>
       <c r="AE8" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF8" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG8" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH8" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI8" s="8" t="s">
         <v>1</v>
@@ -977,34 +963,34 @@
         <v>1</v>
       </c>
       <c r="AM8" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN8" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO8" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP8" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ8" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR8" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AS8" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT8" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU8" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV8" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW8" s="8" t="s">
         <v>2</v>
@@ -1021,13 +1007,13 @@
         <v>44713.0625</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>2</v>
@@ -1036,10 +1022,10 @@
         <v>2</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>1</v>
@@ -1048,7 +1034,7 @@
         <v>2</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9" s="8" t="s">
         <v>1</v>
@@ -1063,37 +1049,37 @@
         <v>2</v>
       </c>
       <c r="P9" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q9" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R9" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S9" s="8" t="s">
         <v>2</v>
       </c>
       <c r="T9" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U9" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V9" s="8" t="s">
         <v>2</v>
       </c>
       <c r="W9" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X9" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y9" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z9" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA9" s="8" t="s">
         <v>1</v>
@@ -1105,10 +1091,10 @@
         <v>2</v>
       </c>
       <c r="AD9" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE9" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF9" s="8" t="s">
         <v>1</v>
@@ -1126,34 +1112,34 @@
         <v>2</v>
       </c>
       <c r="AK9" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL9" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM9" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AN9" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO9" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AP9" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ9" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR9" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AS9" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT9" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU9" s="8" t="s">
         <v>1</v>
@@ -1162,13 +1148,13 @@
         <v>2</v>
       </c>
       <c r="AW9" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX9" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY9" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -1176,7 +1162,7 @@
         <v>44713.0833333333</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>1</v>
@@ -1191,28 +1177,28 @@
         <v>1</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>2</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K10" s="8" t="s">
         <v>2</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M10" s="8" t="s">
         <v>1</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O10" s="8" t="s">
         <v>1</v>
@@ -1221,7 +1207,7 @@
         <v>1</v>
       </c>
       <c r="Q10" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R10" s="8" t="s">
         <v>1</v>
@@ -1230,19 +1216,19 @@
         <v>2</v>
       </c>
       <c r="T10" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U10" s="8" t="s">
         <v>1</v>
       </c>
       <c r="V10" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W10" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X10" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y10" s="8" t="s">
         <v>2</v>
@@ -1254,13 +1240,13 @@
         <v>1</v>
       </c>
       <c r="AB10" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC10" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD10" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE10" s="8" t="s">
         <v>2</v>
@@ -1275,31 +1261,31 @@
         <v>1</v>
       </c>
       <c r="AI10" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ10" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AK10" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL10" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM10" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN10" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AO10" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP10" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AQ10" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR10" s="8" t="s">
         <v>1</v>
@@ -1308,19 +1294,19 @@
         <v>2</v>
       </c>
       <c r="AT10" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU10" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AV10" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW10" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX10" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY10" s="8" t="s">
         <v>2</v>
@@ -1334,13 +1320,13 @@
         <v>1</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>1</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>1</v>
@@ -1349,22 +1335,22 @@
         <v>1</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11" s="8" t="s">
         <v>1</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N11" s="8" t="s">
         <v>1</v>
@@ -1373,28 +1359,28 @@
         <v>1</v>
       </c>
       <c r="P11" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q11" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R11" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S11" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T11" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U11" s="8" t="s">
         <v>1</v>
       </c>
       <c r="V11" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W11" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X11" s="8" t="s">
         <v>2</v>
@@ -1403,34 +1389,34 @@
         <v>1</v>
       </c>
       <c r="Z11" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA11" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB11" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC11" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD11" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE11" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AF11" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG11" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH11" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI11" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ11" s="8" t="s">
         <v>2</v>
@@ -1442,13 +1428,13 @@
         <v>1</v>
       </c>
       <c r="AM11" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN11" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AO11" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP11" s="8" t="s">
         <v>1</v>
@@ -1460,7 +1446,7 @@
         <v>2</v>
       </c>
       <c r="AS11" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT11" s="8" t="s">
         <v>2</v>
@@ -1469,16 +1455,16 @@
         <v>1</v>
       </c>
       <c r="AV11" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW11" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX11" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY11" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -1489,25 +1475,25 @@
         <v>2</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>2</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>2</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" s="8" t="s">
         <v>2</v>
@@ -1528,7 +1514,7 @@
         <v>2</v>
       </c>
       <c r="P12" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="8" t="s">
         <v>1</v>
@@ -1543,7 +1529,7 @@
         <v>2</v>
       </c>
       <c r="U12" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V12" s="8" t="s">
         <v>2</v>
@@ -1552,25 +1538,25 @@
         <v>1</v>
       </c>
       <c r="X12" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y12" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z12" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA12" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AB12" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC12" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD12" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE12" s="8" t="s">
         <v>1</v>
@@ -1585,40 +1571,40 @@
         <v>2</v>
       </c>
       <c r="AI12" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ12" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AK12" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL12" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM12" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN12" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO12" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP12" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AQ12" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR12" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AS12" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT12" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU12" s="8" t="s">
         <v>1</v>
@@ -1647,7 +1633,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>1</v>
@@ -1656,7 +1642,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H13" s="8" t="s">
         <v>1</v>
@@ -1671,16 +1657,16 @@
         <v>1</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N13" s="8" t="s">
         <v>1</v>
       </c>
       <c r="O13" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P13" s="8" t="s">
         <v>1</v>
@@ -1689,7 +1675,7 @@
         <v>1</v>
       </c>
       <c r="R13" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S13" s="8" t="s">
         <v>2</v>
@@ -1704,31 +1690,31 @@
         <v>2</v>
       </c>
       <c r="W13" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X13" s="8" t="s">
         <v>1</v>
       </c>
       <c r="Y13" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z13" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA13" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AB13" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC13" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD13" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE13" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF13" s="8" t="s">
         <v>2</v>
@@ -1737,34 +1723,34 @@
         <v>2</v>
       </c>
       <c r="AH13" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI13" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ13" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK13" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL13" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM13" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN13" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO13" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP13" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AQ13" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR13" s="8" t="s">
         <v>1</v>
@@ -1776,16 +1762,16 @@
         <v>2</v>
       </c>
       <c r="AU13" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV13" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW13" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AX13" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY13" s="8" t="s">
         <v>1</v>
@@ -1796,19 +1782,19 @@
         <v>44713.1666666667</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>1</v>
@@ -1817,22 +1803,22 @@
         <v>1</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N14" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O14" s="8" t="s">
         <v>2</v>
@@ -1841,19 +1827,19 @@
         <v>2</v>
       </c>
       <c r="Q14" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R14" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S14" s="8" t="s">
         <v>1</v>
       </c>
       <c r="T14" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U14" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V14" s="8" t="s">
         <v>1</v>
@@ -1865,22 +1851,22 @@
         <v>2</v>
       </c>
       <c r="Y14" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z14" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA14" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AB14" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC14" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD14" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE14" s="8" t="s">
         <v>2</v>
@@ -1901,28 +1887,28 @@
         <v>2</v>
       </c>
       <c r="AK14" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL14" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM14" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AN14" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO14" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AP14" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ14" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AR14" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS14" s="8" t="s">
         <v>2</v>
@@ -1931,10 +1917,10 @@
         <v>1</v>
       </c>
       <c r="AU14" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV14" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW14" s="8" t="s">
         <v>1</v>
@@ -1943,7 +1929,7 @@
         <v>1</v>
       </c>
       <c r="AY14" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1960,46 +1946,46 @@
         <v>1</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>1</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" s="8" t="s">
         <v>2</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K15" s="8" t="s">
         <v>1</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O15" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P15" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q15" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R15" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S15" s="8" t="s">
         <v>2</v>
@@ -2014,10 +2000,10 @@
         <v>1</v>
       </c>
       <c r="W15" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X15" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y15" s="8" t="s">
         <v>1</v>
@@ -2038,28 +2024,28 @@
         <v>2</v>
       </c>
       <c r="AE15" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF15" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG15" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH15" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AI15" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ15" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK15" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AL15" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM15" s="8" t="s">
         <v>2</v>
@@ -2068,16 +2054,16 @@
         <v>1</v>
       </c>
       <c r="AO15" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP15" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ15" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AR15" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS15" s="8" t="s">
         <v>1</v>
@@ -2089,13 +2075,13 @@
         <v>1</v>
       </c>
       <c r="AV15" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW15" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AX15" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY15" s="8" t="s">
         <v>2</v>
@@ -2106,61 +2092,61 @@
         <v>44713.2083333333</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>1</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J16" s="8" t="s">
         <v>1</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16" s="8" t="s">
         <v>2</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N16" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O16" s="8" t="s">
         <v>2</v>
       </c>
       <c r="P16" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R16" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S16" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T16" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U16" s="8" t="s">
         <v>2</v>
@@ -2169,16 +2155,16 @@
         <v>2</v>
       </c>
       <c r="W16" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X16" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y16" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z16" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA16" s="8" t="s">
         <v>2</v>
@@ -2187,25 +2173,25 @@
         <v>1</v>
       </c>
       <c r="AC16" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD16" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AE16" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF16" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AG16" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH16" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AI16" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ16" s="8" t="s">
         <v>2</v>
@@ -2214,16 +2200,16 @@
         <v>2</v>
       </c>
       <c r="AL16" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM16" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN16" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO16" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP16" s="8" t="s">
         <v>1</v>
@@ -2247,13 +2233,13 @@
         <v>1</v>
       </c>
       <c r="AW16" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX16" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY16" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -2261,10 +2247,10 @@
         <v>44713.2291666667</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>2</v>
@@ -2276,22 +2262,22 @@
         <v>1</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H17" s="8" t="s">
         <v>2</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M17" s="8" t="s">
         <v>1</v>
@@ -2303,31 +2289,31 @@
         <v>2</v>
       </c>
       <c r="P17" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R17" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S17" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T17" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U17" s="8" t="s">
         <v>1</v>
       </c>
       <c r="V17" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W17" s="8" t="s">
         <v>1</v>
       </c>
       <c r="X17" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y17" s="8" t="s">
         <v>2</v>
@@ -2351,22 +2337,22 @@
         <v>1</v>
       </c>
       <c r="AF17" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG17" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH17" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI17" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ17" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK17" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL17" s="8" t="s">
         <v>1</v>
@@ -2381,34 +2367,34 @@
         <v>1</v>
       </c>
       <c r="AP17" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ17" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AR17" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS17" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AT17" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU17" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV17" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW17" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX17" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY17" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -2419,7 +2405,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>1</v>
@@ -2431,10 +2417,10 @@
         <v>2</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>2</v>
@@ -2458,22 +2444,22 @@
         <v>1</v>
       </c>
       <c r="P18" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q18" s="8" t="s">
         <v>1</v>
       </c>
       <c r="R18" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S18" s="8" t="s">
         <v>1</v>
       </c>
       <c r="T18" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U18" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V18" s="8" t="s">
         <v>1</v>
@@ -2485,37 +2471,37 @@
         <v>2</v>
       </c>
       <c r="Y18" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z18" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA18" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB18" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC18" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AD18" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE18" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AF18" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG18" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH18" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AI18" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ18" s="8" t="s">
         <v>1</v>
@@ -2524,7 +2510,7 @@
         <v>1</v>
       </c>
       <c r="AL18" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM18" s="8" t="s">
         <v>2</v>
@@ -2533,16 +2519,16 @@
         <v>1</v>
       </c>
       <c r="AO18" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP18" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ18" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AR18" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS18" s="8" t="s">
         <v>1</v>
@@ -2557,7 +2543,7 @@
         <v>1</v>
       </c>
       <c r="AW18" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX18" s="8" t="s">
         <v>1</v>
@@ -2571,19 +2557,19 @@
         <v>44713.2708333333</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>2</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>2</v>
@@ -2598,7 +2584,7 @@
         <v>1</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L19" s="8" t="s">
         <v>1</v>
@@ -2613,31 +2599,31 @@
         <v>1</v>
       </c>
       <c r="P19" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q19" s="8" t="s">
         <v>2</v>
       </c>
       <c r="R19" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S19" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T19" s="8" t="s">
         <v>2</v>
       </c>
       <c r="U19" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V19" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W19" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X19" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y19" s="8" t="s">
         <v>2</v>
@@ -2649,49 +2635,49 @@
         <v>2</v>
       </c>
       <c r="AB19" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC19" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD19" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE19" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF19" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG19" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH19" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AI19" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ19" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AK19" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL19" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM19" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN19" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO19" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AP19" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ19" s="8" t="s">
         <v>2</v>
@@ -2700,7 +2686,7 @@
         <v>2</v>
       </c>
       <c r="AS19" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT19" s="8" t="s">
         <v>2</v>
@@ -2726,7 +2712,7 @@
         <v>44713.2916666667</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>2</v>
@@ -2744,22 +2730,22 @@
         <v>1</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20" s="8" t="s">
         <v>1</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N20" s="8" t="s">
         <v>2</v>
@@ -2768,76 +2754,76 @@
         <v>1</v>
       </c>
       <c r="P20" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q20" s="8" t="s">
         <v>1</v>
       </c>
       <c r="R20" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S20" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T20" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U20" s="8" t="s">
         <v>2</v>
       </c>
       <c r="V20" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W20" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X20" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y20" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z20" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA20" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AB20" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC20" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD20" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AE20" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF20" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG20" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AH20" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI20" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ20" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AK20" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL20" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AM20" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN20" s="8" t="s">
         <v>2</v>
@@ -2861,19 +2847,19 @@
         <v>1</v>
       </c>
       <c r="AU20" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV20" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AW20" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX20" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY20" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -2884,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>2</v>
@@ -2902,7 +2888,7 @@
         <v>1</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J21" s="8" t="s">
         <v>2</v>
@@ -2914,7 +2900,7 @@
         <v>1</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N21" s="8" t="s">
         <v>1</v>
@@ -2923,7 +2909,7 @@
         <v>2</v>
       </c>
       <c r="P21" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="8" t="s">
         <v>2</v>
@@ -2932,16 +2918,16 @@
         <v>2</v>
       </c>
       <c r="S21" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T21" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U21" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V21" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W21" s="8" t="s">
         <v>2</v>
@@ -2950,28 +2936,28 @@
         <v>2</v>
       </c>
       <c r="Y21" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z21" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA21" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AB21" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC21" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD21" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE21" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AF21" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG21" s="8" t="s">
         <v>2</v>
@@ -2986,22 +2972,22 @@
         <v>1</v>
       </c>
       <c r="AK21" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL21" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM21" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AN21" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO21" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AP21" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ21" s="8" t="s">
         <v>2</v>
@@ -3019,13 +3005,13 @@
         <v>1</v>
       </c>
       <c r="AV21" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW21" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX21" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY21" s="8" t="s">
         <v>2</v>
@@ -3039,7 +3025,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>1</v>
@@ -3051,10 +3037,10 @@
         <v>1</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" s="8" t="s">
         <v>1</v>
@@ -3063,13 +3049,13 @@
         <v>1</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22" s="8" t="s">
         <v>1</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N22" s="8" t="s">
         <v>2</v>
@@ -3078,19 +3064,19 @@
         <v>1</v>
       </c>
       <c r="P22" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q22" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R22" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S22" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T22" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U22" s="8" t="s">
         <v>2</v>
@@ -3099,16 +3085,16 @@
         <v>1</v>
       </c>
       <c r="W22" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X22" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y22" s="8" t="s">
         <v>2</v>
       </c>
       <c r="Z22" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA22" s="8" t="s">
         <v>2</v>
@@ -3120,19 +3106,19 @@
         <v>1</v>
       </c>
       <c r="AD22" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE22" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF22" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG22" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AH22" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI22" s="8" t="s">
         <v>1</v>
@@ -3141,7 +3127,7 @@
         <v>2</v>
       </c>
       <c r="AK22" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL22" s="8" t="s">
         <v>2</v>
@@ -3150,28 +3136,28 @@
         <v>1</v>
       </c>
       <c r="AN22" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO22" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP22" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ22" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR22" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS22" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AT22" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU22" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV22" s="8" t="s">
         <v>1</v>
@@ -3180,10 +3166,10 @@
         <v>2</v>
       </c>
       <c r="AX22" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY22" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -3200,25 +3186,25 @@
         <v>1</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" s="8" t="s">
         <v>2</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L23" s="8" t="s">
         <v>1</v>
@@ -3227,16 +3213,16 @@
         <v>1</v>
       </c>
       <c r="N23" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O23" s="8" t="s">
         <v>1</v>
       </c>
       <c r="P23" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q23" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R23" s="8" t="s">
         <v>2</v>
@@ -3245,10 +3231,10 @@
         <v>2</v>
       </c>
       <c r="T23" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U23" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V23" s="8" t="s">
         <v>2</v>
@@ -3257,16 +3243,16 @@
         <v>1</v>
       </c>
       <c r="X23" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y23" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z23" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA23" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB23" s="8" t="s">
         <v>1</v>
@@ -3275,10 +3261,10 @@
         <v>2</v>
       </c>
       <c r="AD23" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE23" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF23" s="8" t="s">
         <v>1</v>
@@ -3287,19 +3273,19 @@
         <v>1</v>
       </c>
       <c r="AH23" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI23" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ23" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK23" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AL23" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM23" s="8" t="s">
         <v>2</v>
@@ -3314,16 +3300,16 @@
         <v>2</v>
       </c>
       <c r="AQ23" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR23" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS23" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AT23" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU23" s="8" t="s">
         <v>1</v>
@@ -3332,7 +3318,7 @@
         <v>2</v>
       </c>
       <c r="AW23" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX23" s="8" t="s">
         <v>2</v>
@@ -3346,7 +3332,7 @@
         <v>44713.375</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>1</v>
@@ -3358,19 +3344,19 @@
         <v>2</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" s="8" t="s">
         <v>2</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K24" s="8" t="s">
         <v>2</v>
@@ -3382,19 +3368,19 @@
         <v>2</v>
       </c>
       <c r="N24" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O24" s="8" t="s">
         <v>1</v>
       </c>
       <c r="P24" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q24" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R24" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S24" s="8" t="s">
         <v>1</v>
@@ -3403,7 +3389,7 @@
         <v>2</v>
       </c>
       <c r="U24" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V24" s="8" t="s">
         <v>2</v>
@@ -3412,40 +3398,40 @@
         <v>1</v>
       </c>
       <c r="X24" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y24" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z24" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AA24" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB24" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC24" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD24" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE24" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF24" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG24" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH24" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AI24" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ24" s="8" t="s">
         <v>1</v>
@@ -3475,19 +3461,19 @@
         <v>1</v>
       </c>
       <c r="AS24" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT24" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU24" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV24" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW24" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX24" s="8" t="s">
         <v>1</v>
@@ -3504,34 +3490,34 @@
         <v>2</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>2</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>1</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>1</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K25" s="8" t="s">
         <v>1</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M25" s="8" t="s">
         <v>2</v>
@@ -3540,7 +3526,7 @@
         <v>1</v>
       </c>
       <c r="O25" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P25" s="8" t="s">
         <v>2</v>
@@ -3549,13 +3535,13 @@
         <v>1</v>
       </c>
       <c r="R25" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S25" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T25" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U25" s="8" t="s">
         <v>1</v>
@@ -3564,16 +3550,16 @@
         <v>2</v>
       </c>
       <c r="W25" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X25" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y25" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z25" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA25" s="8" t="s">
         <v>1</v>
@@ -3588,10 +3574,10 @@
         <v>2</v>
       </c>
       <c r="AE25" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF25" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG25" s="8" t="s">
         <v>1</v>
@@ -3603,28 +3589,28 @@
         <v>1</v>
       </c>
       <c r="AJ25" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK25" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL25" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM25" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AN25" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO25" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP25" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AQ25" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR25" s="8" t="s">
         <v>1</v>
@@ -3636,16 +3622,16 @@
         <v>1</v>
       </c>
       <c r="AU25" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV25" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AW25" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX25" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY25" s="8" t="s">
         <v>2</v>
@@ -3656,37 +3642,37 @@
         <v>44713.4166666667</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H26" s="8" t="s">
         <v>1</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M26" s="8" t="s">
         <v>1</v>
@@ -3695,25 +3681,25 @@
         <v>2</v>
       </c>
       <c r="O26" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P26" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q26" s="8" t="s">
         <v>2</v>
       </c>
       <c r="R26" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S26" s="8" t="s">
         <v>1</v>
       </c>
       <c r="T26" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U26" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V26" s="8" t="s">
         <v>1</v>
@@ -3722,13 +3708,13 @@
         <v>1</v>
       </c>
       <c r="X26" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y26" s="8" t="s">
         <v>2</v>
       </c>
       <c r="Z26" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA26" s="8" t="s">
         <v>2</v>
@@ -3740,28 +3726,28 @@
         <v>2</v>
       </c>
       <c r="AD26" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE26" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF26" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG26" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH26" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI26" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ26" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK26" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL26" s="8" t="s">
         <v>2</v>
@@ -3779,25 +3765,25 @@
         <v>1</v>
       </c>
       <c r="AQ26" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR26" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS26" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AT26" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU26" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV26" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW26" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX26" s="8" t="s">
         <v>2</v>
@@ -3814,7 +3800,7 @@
         <v>2</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>2</v>
@@ -3823,19 +3809,19 @@
         <v>2</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" s="8" t="s">
         <v>2</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K27" s="8" t="s">
         <v>1</v>
@@ -3850,7 +3836,7 @@
         <v>2</v>
       </c>
       <c r="O27" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P27" s="8" t="s">
         <v>1</v>
@@ -3868,7 +3854,7 @@
         <v>2</v>
       </c>
       <c r="U27" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V27" s="8" t="s">
         <v>2</v>
@@ -3886,7 +3872,7 @@
         <v>1</v>
       </c>
       <c r="AA27" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB27" s="8" t="s">
         <v>1</v>
@@ -3898,16 +3884,16 @@
         <v>1</v>
       </c>
       <c r="AE27" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF27" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG27" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH27" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI27" s="8" t="s">
         <v>1</v>
@@ -3916,43 +3902,43 @@
         <v>1</v>
       </c>
       <c r="AK27" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL27" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM27" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN27" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO27" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP27" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ27" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AR27" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS27" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT27" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AU27" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV27" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW27" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX27" s="8" t="s">
         <v>2</v>
@@ -3981,13 +3967,13 @@
         <v>2</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J28" s="8" t="s">
         <v>1</v>
@@ -3999,10 +3985,10 @@
         <v>2</v>
       </c>
       <c r="M28" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N28" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O28" s="8" t="s">
         <v>2</v>
@@ -4017,22 +4003,22 @@
         <v>1</v>
       </c>
       <c r="S28" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T28" s="8" t="s">
         <v>2</v>
       </c>
       <c r="U28" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V28" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W28" s="8" t="s">
         <v>2</v>
       </c>
       <c r="X28" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y28" s="8" t="s">
         <v>2</v>
@@ -4047,16 +4033,16 @@
         <v>2</v>
       </c>
       <c r="AC28" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD28" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE28" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF28" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG28" s="8" t="s">
         <v>2</v>
@@ -4068,10 +4054,10 @@
         <v>2</v>
       </c>
       <c r="AJ28" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK28" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL28" s="8" t="s">
         <v>1</v>
@@ -4080,10 +4066,10 @@
         <v>2</v>
       </c>
       <c r="AN28" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO28" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP28" s="8" t="s">
         <v>1</v>
@@ -4092,22 +4078,22 @@
         <v>1</v>
       </c>
       <c r="AR28" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS28" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AT28" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU28" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV28" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AW28" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX28" s="8" t="s">
         <v>1</v>
@@ -4124,7 +4110,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>1</v>
@@ -4133,91 +4119,91 @@
         <v>1</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K29" s="8" t="s">
         <v>1</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M29" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N29" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O29" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P29" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q29" s="8" t="s">
         <v>1</v>
       </c>
       <c r="R29" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S29" s="8" t="s">
         <v>1</v>
       </c>
       <c r="T29" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U29" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V29" s="8" t="s">
         <v>1</v>
       </c>
       <c r="W29" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X29" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y29" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z29" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AA29" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB29" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AC29" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD29" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE29" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF29" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG29" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH29" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI29" s="8" t="s">
         <v>1</v>
@@ -4229,10 +4215,10 @@
         <v>1</v>
       </c>
       <c r="AL29" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM29" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN29" s="8" t="s">
         <v>2</v>
@@ -4241,34 +4227,34 @@
         <v>1</v>
       </c>
       <c r="AP29" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ29" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AR29" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS29" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT29" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU29" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV29" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AW29" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX29" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AY29" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -4276,28 +4262,28 @@
         <v>44713.5</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>2</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>1</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H30" s="8" t="s">
         <v>1</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J30" s="8" t="s">
         <v>2</v>
@@ -4306,16 +4292,16 @@
         <v>1</v>
       </c>
       <c r="L30" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M30" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N30" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O30" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P30" s="8" t="s">
         <v>1</v>
@@ -4324,43 +4310,43 @@
         <v>1</v>
       </c>
       <c r="R30" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S30" s="8" t="s">
         <v>2</v>
       </c>
       <c r="T30" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U30" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V30" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W30" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X30" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y30" s="8" t="s">
         <v>2</v>
       </c>
       <c r="Z30" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA30" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AB30" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC30" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AD30" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE30" s="8" t="s">
         <v>1</v>
@@ -4369,19 +4355,19 @@
         <v>1</v>
       </c>
       <c r="AG30" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH30" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI30" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ30" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK30" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL30" s="8" t="s">
         <v>2</v>
@@ -4390,16 +4376,16 @@
         <v>1</v>
       </c>
       <c r="AN30" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO30" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP30" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AQ30" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR30" s="8" t="s">
         <v>1</v>
@@ -4411,7 +4397,7 @@
         <v>2</v>
       </c>
       <c r="AU30" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV30" s="8" t="s">
         <v>1</v>
@@ -4420,7 +4406,7 @@
         <v>1</v>
       </c>
       <c r="AX30" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY30" s="8" t="s">
         <v>2</v>
@@ -4440,22 +4426,22 @@
         <v>1</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31" s="8" t="s">
         <v>1</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K31" s="8" t="s">
         <v>2</v>
@@ -4464,25 +4450,25 @@
         <v>2</v>
       </c>
       <c r="M31" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O31" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P31" s="8" t="s">
         <v>1</v>
       </c>
       <c r="Q31" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R31" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S31" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T31" s="8" t="s">
         <v>1</v>
@@ -4491,7 +4477,7 @@
         <v>1</v>
       </c>
       <c r="V31" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W31" s="8" t="s">
         <v>2</v>
@@ -4500,13 +4486,13 @@
         <v>2</v>
       </c>
       <c r="Y31" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z31" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AA31" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB31" s="8" t="s">
         <v>2</v>
@@ -4518,28 +4504,28 @@
         <v>1</v>
       </c>
       <c r="AE31" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF31" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AG31" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH31" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI31" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AJ31" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK31" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AL31" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM31" s="8" t="s">
         <v>2</v>
@@ -4548,16 +4534,16 @@
         <v>2</v>
       </c>
       <c r="AO31" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP31" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ31" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AR31" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS31" s="8" t="s">
         <v>2</v>
@@ -4566,19 +4552,19 @@
         <v>2</v>
       </c>
       <c r="AU31" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV31" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW31" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX31" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY31" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -4586,19 +4572,19 @@
         <v>44713.5416666667</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>1</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>1</v>
@@ -4607,7 +4593,7 @@
         <v>1</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J32" s="8" t="s">
         <v>2</v>
@@ -4628,13 +4614,13 @@
         <v>1</v>
       </c>
       <c r="P32" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q32" s="8" t="s">
         <v>1</v>
       </c>
       <c r="R32" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S32" s="8" t="s">
         <v>2</v>
@@ -4643,7 +4629,7 @@
         <v>2</v>
       </c>
       <c r="U32" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V32" s="8" t="s">
         <v>2</v>
@@ -4652,13 +4638,13 @@
         <v>2</v>
       </c>
       <c r="X32" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y32" s="8" t="s">
         <v>1</v>
       </c>
       <c r="Z32" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA32" s="8" t="s">
         <v>2</v>
@@ -4667,10 +4653,10 @@
         <v>2</v>
       </c>
       <c r="AC32" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD32" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE32" s="8" t="s">
         <v>1</v>
@@ -4682,7 +4668,7 @@
         <v>1</v>
       </c>
       <c r="AH32" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI32" s="8" t="s">
         <v>1</v>
@@ -4691,16 +4677,16 @@
         <v>2</v>
       </c>
       <c r="AK32" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL32" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AM32" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN32" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO32" s="8" t="s">
         <v>1</v>
@@ -4715,19 +4701,19 @@
         <v>2</v>
       </c>
       <c r="AS32" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT32" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU32" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV32" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AW32" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX32" s="8" t="s">
         <v>2</v>
@@ -4741,19 +4727,19 @@
         <v>44713.5625</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G33" s="8" t="s">
         <v>2</v>
@@ -4765,10 +4751,10 @@
         <v>2</v>
       </c>
       <c r="J33" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L33" s="8" t="s">
         <v>2</v>
@@ -4780,34 +4766,34 @@
         <v>2</v>
       </c>
       <c r="O33" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P33" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q33" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R33" s="8" t="s">
         <v>2</v>
       </c>
       <c r="S33" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T33" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U33" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V33" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W33" s="8" t="s">
         <v>1</v>
       </c>
       <c r="X33" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y33" s="8" t="s">
         <v>1</v>
@@ -4822,13 +4808,13 @@
         <v>1</v>
       </c>
       <c r="AC33" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD33" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE33" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF33" s="8" t="s">
         <v>2</v>
@@ -4837,7 +4823,7 @@
         <v>1</v>
       </c>
       <c r="AH33" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI33" s="8" t="s">
         <v>1</v>
@@ -4846,16 +4832,16 @@
         <v>2</v>
       </c>
       <c r="AK33" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL33" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM33" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AN33" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO33" s="8" t="s">
         <v>2</v>
@@ -4867,16 +4853,16 @@
         <v>2</v>
       </c>
       <c r="AR33" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS33" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AT33" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU33" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV33" s="8" t="s">
         <v>2</v>
@@ -4885,7 +4871,7 @@
         <v>1</v>
       </c>
       <c r="AX33" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY33" s="8" t="s">
         <v>1</v>
@@ -4902,7 +4888,7 @@
         <v>2</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>1</v>
@@ -4911,40 +4897,40 @@
         <v>1</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34" s="8" t="s">
         <v>1</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K34" s="8" t="s">
         <v>2</v>
       </c>
       <c r="L34" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M34" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N34" s="8" t="s">
         <v>2</v>
       </c>
       <c r="O34" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P34" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q34" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R34" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S34" s="8" t="s">
         <v>2</v>
@@ -4953,34 +4939,34 @@
         <v>2</v>
       </c>
       <c r="U34" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V34" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W34" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X34" s="8" t="s">
         <v>1</v>
       </c>
       <c r="Y34" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z34" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA34" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AB34" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC34" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AD34" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE34" s="8" t="s">
         <v>1</v>
@@ -4992,49 +4978,49 @@
         <v>1</v>
       </c>
       <c r="AH34" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI34" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ34" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AK34" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL34" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AM34" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN34" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO34" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP34" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ34" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AR34" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS34" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT34" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU34" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AV34" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW34" s="8" t="s">
         <v>1</v>
@@ -5054,34 +5040,34 @@
         <v>2</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>1</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H35" s="8" t="s">
         <v>2</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J35" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M35" s="8" t="s">
         <v>1</v>
@@ -5090,13 +5076,13 @@
         <v>1</v>
       </c>
       <c r="O35" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P35" s="8" t="s">
         <v>1</v>
       </c>
       <c r="Q35" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R35" s="8" t="s">
         <v>1</v>
@@ -5108,28 +5094,28 @@
         <v>1</v>
       </c>
       <c r="U35" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V35" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W35" s="8" t="s">
         <v>1</v>
       </c>
       <c r="X35" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y35" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z35" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AA35" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB35" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC35" s="8" t="s">
         <v>1</v>
@@ -5141,7 +5127,7 @@
         <v>2</v>
       </c>
       <c r="AF35" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG35" s="8" t="s">
         <v>1</v>
@@ -5150,10 +5136,10 @@
         <v>2</v>
       </c>
       <c r="AI35" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ35" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK35" s="8" t="s">
         <v>1</v>
@@ -5165,10 +5151,10 @@
         <v>2</v>
       </c>
       <c r="AN35" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO35" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP35" s="8" t="s">
         <v>1</v>
@@ -5186,10 +5172,10 @@
         <v>1</v>
       </c>
       <c r="AU35" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV35" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW35" s="8" t="s">
         <v>1</v>
@@ -5198,7 +5184,7 @@
         <v>1</v>
       </c>
       <c r="AY35" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -5206,34 +5192,34 @@
         <v>44713.625</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E36" s="8" t="s">
         <v>2</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G36" s="8" t="s">
         <v>1</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K36" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L36" s="8" t="s">
         <v>1</v>
@@ -5242,7 +5228,7 @@
         <v>2</v>
       </c>
       <c r="N36" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O36" s="8" t="s">
         <v>1</v>
@@ -5251,7 +5237,7 @@
         <v>1</v>
       </c>
       <c r="Q36" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R36" s="8" t="s">
         <v>2</v>
@@ -5263,34 +5249,34 @@
         <v>1</v>
       </c>
       <c r="U36" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V36" s="8" t="s">
         <v>2</v>
       </c>
       <c r="W36" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X36" s="8" t="s">
         <v>2</v>
       </c>
       <c r="Y36" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z36" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AA36" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB36" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AC36" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD36" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE36" s="8" t="s">
         <v>1</v>
@@ -5299,10 +5285,10 @@
         <v>1</v>
       </c>
       <c r="AG36" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH36" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI36" s="8" t="s">
         <v>1</v>
@@ -5311,16 +5297,16 @@
         <v>1</v>
       </c>
       <c r="AK36" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL36" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AM36" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN36" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO36" s="8" t="s">
         <v>1</v>
@@ -5335,25 +5321,25 @@
         <v>2</v>
       </c>
       <c r="AS36" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT36" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU36" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV36" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW36" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AX36" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY36" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -5367,7 +5353,7 @@
         <v>2</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37" s="8" t="s">
         <v>1</v>
@@ -5376,19 +5362,19 @@
         <v>1</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J37" s="8" t="s">
         <v>1</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37" s="8" t="s">
         <v>1</v>
@@ -5397,13 +5383,13 @@
         <v>2</v>
       </c>
       <c r="N37" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O37" s="8" t="s">
         <v>1</v>
       </c>
       <c r="P37" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q37" s="8" t="s">
         <v>1</v>
@@ -5412,25 +5398,25 @@
         <v>1</v>
       </c>
       <c r="S37" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T37" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U37" s="8" t="s">
         <v>1</v>
       </c>
       <c r="V37" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W37" s="8" t="s">
         <v>2</v>
       </c>
       <c r="X37" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y37" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z37" s="8" t="s">
         <v>1</v>
@@ -5442,13 +5428,13 @@
         <v>1</v>
       </c>
       <c r="AC37" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD37" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE37" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF37" s="8" t="s">
         <v>1</v>
@@ -5460,16 +5446,16 @@
         <v>2</v>
       </c>
       <c r="AI37" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ37" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AK37" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL37" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM37" s="8" t="s">
         <v>1</v>
@@ -5481,34 +5467,34 @@
         <v>2</v>
       </c>
       <c r="AP37" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ37" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR37" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AS37" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT37" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU37" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV37" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW37" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AX37" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY37" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
@@ -5519,25 +5505,25 @@
         <v>1</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>2</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H38" s="8" t="s">
         <v>2</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J38" s="8" t="s">
         <v>1</v>
@@ -5552,31 +5538,31 @@
         <v>2</v>
       </c>
       <c r="N38" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O38" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P38" s="8" t="s">
         <v>1</v>
       </c>
       <c r="Q38" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R38" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S38" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T38" s="8" t="s">
         <v>1</v>
       </c>
       <c r="U38" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V38" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W38" s="8" t="s">
         <v>2</v>
@@ -5591,13 +5577,13 @@
         <v>2</v>
       </c>
       <c r="AA38" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB38" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC38" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD38" s="8" t="s">
         <v>1</v>
@@ -5609,25 +5595,25 @@
         <v>1</v>
       </c>
       <c r="AG38" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH38" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI38" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AJ38" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK38" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL38" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM38" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN38" s="8" t="s">
         <v>2</v>
@@ -5636,13 +5622,13 @@
         <v>2</v>
       </c>
       <c r="AP38" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ38" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AR38" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS38" s="8" t="s">
         <v>2</v>
@@ -5651,16 +5637,16 @@
         <v>1</v>
       </c>
       <c r="AU38" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV38" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW38" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AX38" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY38" s="8" t="s">
         <v>1</v>
@@ -5674,16 +5660,16 @@
         <v>1</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>1</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G39" s="8" t="s">
         <v>2</v>
@@ -5692,13 +5678,13 @@
         <v>1</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J39" s="8" t="s">
         <v>1</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L39" s="8" t="s">
         <v>1</v>
@@ -5710,31 +5696,31 @@
         <v>1</v>
       </c>
       <c r="O39" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P39" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q39" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R39" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S39" s="8" t="s">
         <v>1</v>
       </c>
       <c r="T39" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U39" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V39" s="8" t="s">
         <v>2</v>
       </c>
       <c r="W39" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X39" s="8" t="s">
         <v>1</v>
@@ -5743,13 +5729,13 @@
         <v>2</v>
       </c>
       <c r="Z39" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA39" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AB39" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC39" s="8" t="s">
         <v>1</v>
@@ -5761,10 +5747,10 @@
         <v>1</v>
       </c>
       <c r="AF39" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG39" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH39" s="8" t="s">
         <v>2</v>
@@ -5776,46 +5762,46 @@
         <v>2</v>
       </c>
       <c r="AK39" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL39" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AM39" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN39" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AO39" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP39" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AQ39" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR39" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS39" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT39" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AU39" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV39" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW39" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX39" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY39" s="8" t="s">
         <v>2</v>
@@ -5826,13 +5812,13 @@
         <v>44713.7083333333</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E40" s="8" t="s">
         <v>2</v>
@@ -5844,7 +5830,7 @@
         <v>2</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" s="8" t="s">
         <v>1</v>
@@ -5853,22 +5839,22 @@
         <v>1</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L40" s="8" t="s">
         <v>2</v>
       </c>
       <c r="M40" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N40" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O40" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P40" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q40" s="8" t="s">
         <v>2</v>
@@ -5883,16 +5869,16 @@
         <v>1</v>
       </c>
       <c r="U40" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V40" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W40" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X40" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y40" s="8" t="s">
         <v>2</v>
@@ -5904,16 +5890,16 @@
         <v>2</v>
       </c>
       <c r="AB40" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC40" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AD40" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE40" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF40" s="8" t="s">
         <v>2</v>
@@ -5922,31 +5908,31 @@
         <v>1</v>
       </c>
       <c r="AH40" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI40" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ40" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK40" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL40" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AM40" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN40" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO40" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AP40" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ40" s="8" t="s">
         <v>2</v>
@@ -5955,16 +5941,16 @@
         <v>2</v>
       </c>
       <c r="AS40" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT40" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AU40" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV40" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW40" s="8" t="s">
         <v>1</v>
@@ -5990,58 +5976,58 @@
         <v>1</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F41" s="8" t="s">
         <v>1</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J41" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N41" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O41" s="8" t="s">
         <v>1</v>
       </c>
       <c r="P41" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q41" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R41" s="8" t="s">
         <v>2</v>
       </c>
       <c r="S41" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T41" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U41" s="8" t="s">
         <v>2</v>
       </c>
       <c r="V41" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W41" s="8" t="s">
         <v>1</v>
@@ -6050,22 +6036,22 @@
         <v>1</v>
       </c>
       <c r="Y41" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z41" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA41" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB41" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AC41" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD41" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE41" s="8" t="s">
         <v>2</v>
@@ -6074,7 +6060,7 @@
         <v>1</v>
       </c>
       <c r="AG41" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH41" s="8" t="s">
         <v>1</v>
@@ -6086,28 +6072,28 @@
         <v>2</v>
       </c>
       <c r="AK41" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL41" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM41" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN41" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AO41" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP41" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ41" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR41" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS41" s="8" t="s">
         <v>1</v>
@@ -6122,13 +6108,13 @@
         <v>1</v>
       </c>
       <c r="AW41" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX41" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY41" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -6136,52 +6122,52 @@
         <v>44713.75</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>1</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G42" s="8" t="s">
         <v>2</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42" s="8" t="s">
         <v>1</v>
       </c>
       <c r="J42" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L42" s="8" t="s">
         <v>2</v>
       </c>
       <c r="M42" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N42" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O42" s="8" t="s">
         <v>2</v>
       </c>
       <c r="P42" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q42" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R42" s="8" t="s">
         <v>1</v>
@@ -6199,7 +6185,7 @@
         <v>1</v>
       </c>
       <c r="W42" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X42" s="8" t="s">
         <v>1</v>
@@ -6220,16 +6206,16 @@
         <v>1</v>
       </c>
       <c r="AD42" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE42" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AF42" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG42" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH42" s="8" t="s">
         <v>2</v>
@@ -6241,7 +6227,7 @@
         <v>2</v>
       </c>
       <c r="AK42" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL42" s="8" t="s">
         <v>2</v>
@@ -6271,7 +6257,7 @@
         <v>1</v>
       </c>
       <c r="AU42" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV42" s="8" t="s">
         <v>2</v>
@@ -6291,7 +6277,7 @@
         <v>44713.7708333333</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>2</v>
@@ -6300,49 +6286,49 @@
         <v>1</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J43" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L43" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M43" s="8" t="s">
         <v>1</v>
       </c>
       <c r="N43" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O43" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P43" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q43" s="8" t="s">
         <v>2</v>
       </c>
       <c r="R43" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S43" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T43" s="8" t="s">
         <v>1</v>
@@ -6351,34 +6337,34 @@
         <v>2</v>
       </c>
       <c r="V43" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W43" s="8" t="s">
         <v>1</v>
       </c>
       <c r="X43" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y43" s="8" t="s">
         <v>1</v>
       </c>
       <c r="Z43" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA43" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AB43" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC43" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD43" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE43" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF43" s="8" t="s">
         <v>1</v>
@@ -6387,40 +6373,40 @@
         <v>2</v>
       </c>
       <c r="AH43" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI43" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AJ43" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK43" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL43" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM43" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN43" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AO43" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP43" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AQ43" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR43" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AS43" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT43" s="8" t="s">
         <v>2</v>
@@ -6432,13 +6418,13 @@
         <v>1</v>
       </c>
       <c r="AW43" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX43" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY43" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
@@ -6446,25 +6432,25 @@
         <v>44713.7916666667</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44" s="8" t="s">
         <v>1</v>
@@ -6482,28 +6468,28 @@
         <v>1</v>
       </c>
       <c r="N44" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O44" s="8" t="s">
         <v>2</v>
       </c>
       <c r="P44" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q44" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R44" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S44" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T44" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U44" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V44" s="8" t="s">
         <v>1</v>
@@ -6521,25 +6507,25 @@
         <v>1</v>
       </c>
       <c r="AA44" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB44" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC44" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD44" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE44" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF44" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AG44" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH44" s="8" t="s">
         <v>1</v>
@@ -6554,7 +6540,7 @@
         <v>1</v>
       </c>
       <c r="AL44" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM44" s="8" t="s">
         <v>2</v>
@@ -6569,31 +6555,31 @@
         <v>2</v>
       </c>
       <c r="AQ44" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR44" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS44" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AT44" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU44" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV44" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW44" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX44" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY44" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
@@ -6601,7 +6587,7 @@
         <v>44713.8125</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>2</v>
@@ -6613,16 +6599,16 @@
         <v>2</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G45" s="8" t="s">
         <v>1</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J45" s="8" t="s">
         <v>1</v>
@@ -6637,19 +6623,19 @@
         <v>2</v>
       </c>
       <c r="N45" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O45" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P45" s="8" t="s">
         <v>2</v>
       </c>
       <c r="Q45" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R45" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S45" s="8" t="s">
         <v>1</v>
@@ -6661,19 +6647,19 @@
         <v>2</v>
       </c>
       <c r="V45" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W45" s="8" t="s">
         <v>2</v>
       </c>
       <c r="X45" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y45" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z45" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA45" s="8" t="s">
         <v>2</v>
@@ -6682,10 +6668,10 @@
         <v>2</v>
       </c>
       <c r="AC45" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD45" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE45" s="8" t="s">
         <v>2</v>
@@ -6700,34 +6686,34 @@
         <v>1</v>
       </c>
       <c r="AI45" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ45" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK45" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AL45" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM45" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN45" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AO45" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP45" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AQ45" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR45" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS45" s="8" t="s">
         <v>2</v>
@@ -6739,16 +6725,16 @@
         <v>2</v>
       </c>
       <c r="AV45" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW45" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX45" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AY45" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -6756,19 +6742,19 @@
         <v>44713.8333333333</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G46" s="8" t="s">
         <v>2</v>
@@ -6798,49 +6784,49 @@
         <v>2</v>
       </c>
       <c r="P46" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q46" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R46" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S46" s="8" t="s">
         <v>2</v>
       </c>
       <c r="T46" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U46" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V46" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W46" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X46" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y46" s="8" t="s">
         <v>2</v>
       </c>
       <c r="Z46" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA46" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AB46" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC46" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AD46" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE46" s="8" t="s">
         <v>2</v>
@@ -6849,7 +6835,7 @@
         <v>1</v>
       </c>
       <c r="AG46" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH46" s="8" t="s">
         <v>1</v>
@@ -6861,22 +6847,22 @@
         <v>2</v>
       </c>
       <c r="AK46" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL46" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AM46" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN46" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AO46" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP46" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ46" s="8" t="s">
         <v>1</v>
@@ -6885,25 +6871,25 @@
         <v>2</v>
       </c>
       <c r="AS46" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT46" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AU46" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV46" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AW46" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX46" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AY46" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
@@ -6911,85 +6897,85 @@
         <v>44713.8541666667</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47" s="8" t="s">
         <v>2</v>
       </c>
       <c r="J47" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K47" s="8" t="s">
         <v>1</v>
       </c>
       <c r="L47" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M47" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N47" s="8" t="s">
         <v>2</v>
       </c>
       <c r="O47" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P47" s="8" t="s">
         <v>2</v>
       </c>
       <c r="Q47" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R47" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S47" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T47" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U47" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V47" s="8" t="s">
         <v>2</v>
       </c>
       <c r="W47" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X47" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y47" s="8" t="s">
         <v>1</v>
       </c>
       <c r="Z47" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA47" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB47" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC47" s="8" t="s">
         <v>1</v>
@@ -6998,37 +6984,37 @@
         <v>2</v>
       </c>
       <c r="AE47" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF47" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG47" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH47" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI47" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ47" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK47" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL47" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AM47" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN47" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AO47" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP47" s="8" t="s">
         <v>2</v>
@@ -7049,7 +7035,7 @@
         <v>1</v>
       </c>
       <c r="AV47" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW47" s="8" t="s">
         <v>2</v>
@@ -7058,7 +7044,7 @@
         <v>1</v>
       </c>
       <c r="AY47" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -7069,55 +7055,55 @@
         <v>2</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>2</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F48" s="8" t="s">
         <v>1</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48" s="8" t="s">
         <v>2</v>
       </c>
       <c r="J48" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L48" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M48" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N48" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O48" s="8" t="s">
         <v>2</v>
       </c>
       <c r="P48" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q48" s="8" t="s">
         <v>2</v>
       </c>
       <c r="R48" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S48" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T48" s="8" t="s">
         <v>2</v>
@@ -7129,19 +7115,19 @@
         <v>2</v>
       </c>
       <c r="W48" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X48" s="8" t="s">
         <v>1</v>
       </c>
       <c r="Y48" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z48" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA48" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB48" s="8" t="s">
         <v>2</v>
@@ -7162,58 +7148,58 @@
         <v>1</v>
       </c>
       <c r="AH48" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI48" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ48" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AK48" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL48" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM48" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN48" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO48" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AP48" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ48" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR48" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AS48" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT48" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU48" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV48" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AW48" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX48" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY48" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -7221,19 +7207,19 @@
         <v>44713.8958333333</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>2</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E49" s="8" t="s">
         <v>1</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G49" s="8" t="s">
         <v>2</v>
@@ -7251,13 +7237,13 @@
         <v>1</v>
       </c>
       <c r="L49" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M49" s="8" t="s">
         <v>1</v>
       </c>
       <c r="N49" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O49" s="8" t="s">
         <v>2</v>
@@ -7272,37 +7258,37 @@
         <v>1</v>
       </c>
       <c r="S49" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T49" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U49" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V49" s="8" t="s">
         <v>1</v>
       </c>
       <c r="W49" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X49" s="8" t="s">
         <v>2</v>
       </c>
       <c r="Y49" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z49" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AA49" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB49" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AC49" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD49" s="8" t="s">
         <v>1</v>
@@ -7320,10 +7306,10 @@
         <v>1</v>
       </c>
       <c r="AI49" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ49" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK49" s="8" t="s">
         <v>2</v>
@@ -7332,19 +7318,19 @@
         <v>2</v>
       </c>
       <c r="AM49" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN49" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AO49" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP49" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AQ49" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR49" s="8" t="s">
         <v>1</v>
@@ -7362,13 +7348,13 @@
         <v>2</v>
       </c>
       <c r="AW49" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX49" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AY49" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -7379,13 +7365,13 @@
         <v>1</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>2</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F50" s="8" t="s">
         <v>2</v>
@@ -7394,46 +7380,46 @@
         <v>2</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J50" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K50" s="8" t="s">
         <v>1</v>
       </c>
       <c r="L50" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M50" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N50" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O50" s="8" t="s">
         <v>2</v>
       </c>
       <c r="P50" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q50" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R50" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S50" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T50" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U50" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V50" s="8" t="s">
         <v>2</v>
@@ -7442,16 +7428,16 @@
         <v>2</v>
       </c>
       <c r="X50" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y50" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z50" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA50" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB50" s="8" t="s">
         <v>1</v>
@@ -7460,7 +7446,7 @@
         <v>2</v>
       </c>
       <c r="AD50" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE50" s="8" t="s">
         <v>2</v>
@@ -7469,7 +7455,7 @@
         <v>2</v>
       </c>
       <c r="AG50" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH50" s="8" t="s">
         <v>2</v>
@@ -7478,52 +7464,52 @@
         <v>1</v>
       </c>
       <c r="AJ50" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK50" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL50" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM50" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AN50" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO50" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP50" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ50" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR50" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS50" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AT50" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU50" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AV50" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW50" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AX50" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY50" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -7531,58 +7517,58 @@
         <v>44713.9375</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51" s="8" t="s">
         <v>2</v>
       </c>
       <c r="J51" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K51" s="8" t="s">
         <v>2</v>
       </c>
       <c r="L51" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M51" s="8" t="s">
         <v>2</v>
       </c>
       <c r="N51" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O51" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P51" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q51" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R51" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S51" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T51" s="8" t="s">
         <v>1</v>
@@ -7597,22 +7583,22 @@
         <v>1</v>
       </c>
       <c r="X51" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y51" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z51" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA51" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB51" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AC51" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD51" s="8" t="s">
         <v>1</v>
@@ -7621,13 +7607,13 @@
         <v>2</v>
       </c>
       <c r="AF51" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG51" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AH51" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI51" s="8" t="s">
         <v>2</v>
@@ -7645,7 +7631,7 @@
         <v>1</v>
       </c>
       <c r="AN51" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO51" s="8" t="s">
         <v>1</v>
@@ -7654,25 +7640,25 @@
         <v>1</v>
       </c>
       <c r="AQ51" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR51" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AS51" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT51" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AU51" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV51" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AW51" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX51" s="8" t="s">
         <v>1</v>
@@ -7695,7 +7681,7 @@
         <v>2</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F52" s="8" t="s">
         <v>2</v>
@@ -7707,7 +7693,7 @@
         <v>1</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J52" s="8" t="s">
         <v>1</v>
@@ -7716,19 +7702,19 @@
         <v>1</v>
       </c>
       <c r="L52" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M52" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N52" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O52" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P52" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q52" s="8" t="s">
         <v>1</v>
@@ -7737,28 +7723,28 @@
         <v>1</v>
       </c>
       <c r="S52" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T52" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U52" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V52" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W52" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X52" s="8" t="s">
         <v>1</v>
       </c>
       <c r="Y52" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z52" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA52" s="8" t="s">
         <v>1</v>
@@ -7767,7 +7753,7 @@
         <v>1</v>
       </c>
       <c r="AC52" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD52" s="8" t="s">
         <v>2</v>
@@ -7776,16 +7762,16 @@
         <v>2</v>
       </c>
       <c r="AF52" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG52" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH52" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI52" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ52" s="8" t="s">
         <v>2</v>
@@ -7803,10 +7789,10 @@
         <v>1</v>
       </c>
       <c r="AO52" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP52" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ52" s="8" t="s">
         <v>2</v>
@@ -7815,7 +7801,7 @@
         <v>2</v>
       </c>
       <c r="AS52" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT52" s="8" t="s">
         <v>1</v>
@@ -7827,13 +7813,13 @@
         <v>2</v>
       </c>
       <c r="AW52" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX52" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AY52" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
@@ -7841,13 +7827,13 @@
         <v>44713.9791666667</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E53" s="8" t="s">
         <v>1</v>
@@ -7859,31 +7845,31 @@
         <v>1</v>
       </c>
       <c r="H53" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I53" s="8" t="s">
         <v>2</v>
       </c>
       <c r="J53" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K53" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L53" s="8" t="s">
         <v>1</v>
       </c>
       <c r="M53" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N53" s="8" t="s">
         <v>1</v>
       </c>
       <c r="O53" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P53" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q53" s="8" t="s">
         <v>1</v>
@@ -7895,16 +7881,16 @@
         <v>2</v>
       </c>
       <c r="T53" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U53" s="8" t="s">
         <v>1</v>
       </c>
       <c r="V53" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W53" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X53" s="8" t="s">
         <v>2</v>
@@ -7916,25 +7902,25 @@
         <v>2</v>
       </c>
       <c r="AA53" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB53" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC53" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD53" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AE53" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF53" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AG53" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH53" s="8" t="s">
         <v>2</v>
@@ -7943,16 +7929,16 @@
         <v>1</v>
       </c>
       <c r="AJ53" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK53" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL53" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM53" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN53" s="8" t="s">
         <v>2</v>
@@ -7964,19 +7950,19 @@
         <v>2</v>
       </c>
       <c r="AQ53" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR53" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS53" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AT53" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU53" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV53" s="8" t="s">
         <v>1</v>
@@ -7988,27 +7974,7 @@
         <v>2</v>
       </c>
       <c r="AY53" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="9">
-      <c r="A9" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
